--- a/test_workout_2.xlsx
+++ b/test_workout_2.xlsx
@@ -37,10 +37,10 @@
     <t>Tutorial Video</t>
   </si>
   <si>
-    <t>Arnold Press</t>
-  </si>
-  <si>
-    <t>Front Delt, Middle Delt</t>
+    <t>Band Pull Apart</t>
+  </si>
+  <si>
+    <t>Rear Delt</t>
   </si>
   <si>
     <t>0</t>
@@ -49,7 +49,7 @@
     <t>Linear periodization</t>
   </si>
   <si>
-    <t>https://youtu.be/Tux8PGVa9wQ</t>
+    <t>https://youtu.be/kZDAZFxA3-c</t>
   </si>
 </sst>
 </file>
